--- a/Test/bin/Release/template_00003.xlsx
+++ b/Test/bin/Release/template_00003.xlsx
@@ -89,6 +89,7 @@
   </si>
   <si>
     <t>TIPO|CAMPO|POSICAO|OPCIONAL
+CA||A1:H12|
 ST|titulo|A6|
 ST|filtro|A8|
 ST|ano|E2:H2|
